--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_312__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/metrics/Trial_312__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5908,7 +5908,7 @@
                   <c:v>359.0995788574219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>342.3069152832031</c:v>
+                  <c:v>342.3069458007812</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>343.8451843261719</c:v>
@@ -5941,7 +5941,7 @@
                   <c:v>330.8731079101562</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>359.4869384765625</c:v>
+                  <c:v>359.4869689941406</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>341.0381164550781</c:v>
@@ -5959,7 +5959,7 @@
                   <c:v>346.222412109375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>360.3131103515625</c:v>
+                  <c:v>360.3130798339844</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>365.0618591308594</c:v>
@@ -6085,7 +6085,7 @@
                   <c:v>357.2882690429688</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>367.2714233398438</c:v>
+                  <c:v>367.2714538574219</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>360.7655029296875</c:v>
@@ -6181,7 +6181,7 @@
                   <c:v>351.9686584472656</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>353.2135009765625</c:v>
+                  <c:v>353.2135314941406</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>352.1864624023438</c:v>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6908,13 +6920,19 @@
         <v>359.088623046875</v>
       </c>
       <c r="G3">
+        <v>396</v>
+      </c>
+      <c r="H3">
+        <v>396</v>
+      </c>
+      <c r="R3">
         <v>375</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>349.6570434570312</v>
       </c>
       <c r="G4">
+        <v>396</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>375</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6960,13 +6984,19 @@
         <v>342.4138793945312</v>
       </c>
       <c r="G5">
+        <v>396</v>
+      </c>
+      <c r="H5">
+        <v>396</v>
+      </c>
+      <c r="R5">
         <v>375</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>359.0995788574219</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>396</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>375</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7009,16 +7045,22 @@
         <v>338.239</v>
       </c>
       <c r="F7">
-        <v>342.3069152832031</v>
+        <v>342.3069458007812</v>
       </c>
       <c r="G7">
+        <v>396</v>
+      </c>
+      <c r="H7">
+        <v>396</v>
+      </c>
+      <c r="R7">
         <v>375</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7038,7 +7080,7 @@
         <v>343.8451843261719</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>354.8072204589844</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>358.988037109375</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>359.6149291992188</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7118,7 +7160,7 @@
         <v>356.6631164550781</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7138,7 +7180,7 @@
         <v>336.2001647949219</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7158,7 +7200,7 @@
         <v>336.354248046875</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>346.3517456054688</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
@@ -7235,7 +7277,7 @@
         <v>358.182</v>
       </c>
       <c r="F18">
-        <v>359.4869384765625</v>
+        <v>359.4869689941406</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7355,7 +7397,7 @@
         <v>362.397</v>
       </c>
       <c r="F24">
-        <v>360.3131103515625</v>
+        <v>360.3130798339844</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8195,7 +8237,7 @@
         <v>362.271</v>
       </c>
       <c r="F66">
-        <v>367.2714233398438</v>
+        <v>367.2714538574219</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8835,7 +8877,7 @@
         <v>360.004</v>
       </c>
       <c r="F98">
-        <v>353.2135009765625</v>
+        <v>353.2135314941406</v>
       </c>
     </row>
     <row r="99" spans="1:6">
